--- a/kenkoukiroku.xlsx
+++ b/kenkoukiroku.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17571"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22026"/>
   <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA6DD119-43B6-4224-8742-CF3ED7CCDC03}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650"/>
+    <workbookView xWindow="2436" yWindow="96" windowWidth="19140" windowHeight="12300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -12,10 +13,16 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$AM$18</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -101,7 +108,10 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="d"/>
+  </numFmts>
   <fonts count="9">
     <font>
       <sz val="11"/>
@@ -161,7 +171,7 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="24"/>
       <color theme="4"/>
       <name val="Yu Gothic"/>
       <family val="2"/>
@@ -169,10 +179,11 @@
     </font>
     <font>
       <b/>
-      <sz val="24"/>
+      <sz val="48"/>
       <color theme="4"/>
       <name val="Yu Gothic"/>
-      <family val="2"/>
+      <family val="3"/>
+      <charset val="128"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -190,7 +201,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="25">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -225,59 +236,6 @@
       </right>
       <top/>
       <bottom style="thin">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color theme="4"/>
-      </left>
-      <right/>
-      <top style="thick">
-        <color theme="4"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thick">
-        <color theme="4"/>
-      </right>
-      <top style="thick">
-        <color theme="4"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color theme="4"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color theme="4"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thick">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thick">
-        <color theme="4"/>
-      </right>
-      <top/>
-      <bottom style="thick">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -365,72 +323,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color theme="4"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="0"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color theme="0"/>
-      </right>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="0"/>
-      </left>
-      <right style="thin">
-        <color theme="0"/>
-      </right>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color theme="4"/>
-      </right>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -484,14 +376,105 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="4"/>
+      </left>
+      <right style="thin">
+        <color theme="4"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="4"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="4"/>
+      </right>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="20" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -500,17 +483,32 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="20" fontId="2" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -529,37 +527,45 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
-    <xf numFmtId="20" fontId="2" fillId="0" borderId="21" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="2">
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor rgb="FF5A9CD6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FF5A9CD6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF5A9CD6"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -733,7 +739,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="4658103" y="1390224"/>
+          <a:off x="4711995" y="1403207"/>
           <a:ext cx="183206" cy="181878"/>
           <a:chOff x="4829810" y="1197610"/>
           <a:chExt cx="184150" cy="184150"/>
@@ -1061,7 +1067,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="4658103" y="1720183"/>
+          <a:off x="4711995" y="1736413"/>
           <a:ext cx="183206" cy="181878"/>
           <a:chOff x="4829810" y="1197610"/>
           <a:chExt cx="184150" cy="184150"/>
@@ -1389,7 +1395,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="4658103" y="2055218"/>
+          <a:off x="4711995" y="2074693"/>
           <a:ext cx="183206" cy="181878"/>
           <a:chOff x="4829810" y="1197610"/>
           <a:chExt cx="184150" cy="184150"/>
@@ -1717,7 +1723,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="4658103" y="2368682"/>
+          <a:off x="4711995" y="2391403"/>
           <a:ext cx="183206" cy="181878"/>
           <a:chOff x="4829810" y="1197610"/>
           <a:chExt cx="184150" cy="184150"/>
@@ -2045,7 +2051,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="4658103" y="2698641"/>
+          <a:off x="4711995" y="2724608"/>
           <a:ext cx="183206" cy="181878"/>
           <a:chOff x="4829810" y="1197610"/>
           <a:chExt cx="184150" cy="184150"/>
@@ -2373,7 +2379,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="4658103" y="3033675"/>
+          <a:off x="4711995" y="3062888"/>
           <a:ext cx="183206" cy="181878"/>
           <a:chOff x="4829810" y="1197610"/>
           <a:chExt cx="184150" cy="184150"/>
@@ -2701,7 +2707,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="4658103" y="3362124"/>
+          <a:off x="4711995" y="3394582"/>
           <a:ext cx="183206" cy="181878"/>
           <a:chOff x="4829810" y="1197610"/>
           <a:chExt cx="184150" cy="184150"/>
@@ -3029,7 +3035,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="4658103" y="3692083"/>
+          <a:off x="4711995" y="3727787"/>
           <a:ext cx="183206" cy="181878"/>
           <a:chOff x="4829810" y="1197610"/>
           <a:chExt cx="184150" cy="184150"/>
@@ -3357,7 +3363,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="4658103" y="4027117"/>
+          <a:off x="4711995" y="4066067"/>
           <a:ext cx="183206" cy="181878"/>
           <a:chOff x="4829810" y="1197610"/>
           <a:chExt cx="184150" cy="184150"/>
@@ -3685,7 +3691,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="4658103" y="4340581"/>
+          <a:off x="4711995" y="4382777"/>
           <a:ext cx="183206" cy="181878"/>
           <a:chOff x="4829810" y="1197610"/>
           <a:chExt cx="184150" cy="184150"/>
@@ -4013,7 +4019,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="4658103" y="4670541"/>
+          <a:off x="4711995" y="4715983"/>
           <a:ext cx="183206" cy="181878"/>
           <a:chOff x="4829810" y="1197610"/>
           <a:chExt cx="184150" cy="184150"/>
@@ -4341,7 +4347,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="4658103" y="5005575"/>
+          <a:off x="4711995" y="5054263"/>
           <a:ext cx="183206" cy="181878"/>
           <a:chOff x="4829810" y="1197610"/>
           <a:chExt cx="184150" cy="184150"/>
@@ -4669,7 +4675,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="4658103" y="5326228"/>
+          <a:off x="4711995" y="5378162"/>
           <a:ext cx="183206" cy="181878"/>
           <a:chOff x="4829810" y="1197610"/>
           <a:chExt cx="184150" cy="184150"/>
@@ -4997,7 +5003,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="4658103" y="5661263"/>
+          <a:off x="4711995" y="5716442"/>
           <a:ext cx="183206" cy="181878"/>
           <a:chOff x="4829810" y="1197610"/>
           <a:chExt cx="184150" cy="184150"/>
@@ -5325,7 +5331,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="9701593" y="1390224"/>
+          <a:off x="9802059" y="1403207"/>
           <a:ext cx="183206" cy="181878"/>
           <a:chOff x="4829810" y="1197610"/>
           <a:chExt cx="184150" cy="184150"/>
@@ -5653,7 +5659,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="9701593" y="1720183"/>
+          <a:off x="9802059" y="1736413"/>
           <a:ext cx="183206" cy="181878"/>
           <a:chOff x="4829810" y="1197610"/>
           <a:chExt cx="184150" cy="184150"/>
@@ -5981,7 +5987,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="9701593" y="2055218"/>
+          <a:off x="9802059" y="2074693"/>
           <a:ext cx="183206" cy="181878"/>
           <a:chOff x="4829810" y="1197610"/>
           <a:chExt cx="184150" cy="184150"/>
@@ -6309,7 +6315,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="9701593" y="2368682"/>
+          <a:off x="9802059" y="2391403"/>
           <a:ext cx="183206" cy="181878"/>
           <a:chOff x="4829810" y="1197610"/>
           <a:chExt cx="184150" cy="184150"/>
@@ -6637,7 +6643,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="9701593" y="2698641"/>
+          <a:off x="9802059" y="2724608"/>
           <a:ext cx="183206" cy="181878"/>
           <a:chOff x="4829810" y="1197610"/>
           <a:chExt cx="184150" cy="184150"/>
@@ -6965,7 +6971,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="9701593" y="3033675"/>
+          <a:off x="9802059" y="3062888"/>
           <a:ext cx="183206" cy="181878"/>
           <a:chOff x="4829810" y="1197610"/>
           <a:chExt cx="184150" cy="184150"/>
@@ -7293,7 +7299,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="9701593" y="3362124"/>
+          <a:off x="9802059" y="3394582"/>
           <a:ext cx="183206" cy="181878"/>
           <a:chOff x="4829810" y="1197610"/>
           <a:chExt cx="184150" cy="184150"/>
@@ -7621,7 +7627,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="9701593" y="3692083"/>
+          <a:off x="9802059" y="3727787"/>
           <a:ext cx="183206" cy="181878"/>
           <a:chOff x="4829810" y="1197610"/>
           <a:chExt cx="184150" cy="184150"/>
@@ -7949,7 +7955,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="9701593" y="4027117"/>
+          <a:off x="9802059" y="4066067"/>
           <a:ext cx="183206" cy="181878"/>
           <a:chOff x="4829810" y="1197610"/>
           <a:chExt cx="184150" cy="184150"/>
@@ -8277,7 +8283,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="9701593" y="4340581"/>
+          <a:off x="9802059" y="4382777"/>
           <a:ext cx="183206" cy="181878"/>
           <a:chOff x="4829810" y="1197610"/>
           <a:chExt cx="184150" cy="184150"/>
@@ -8605,7 +8611,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="9701593" y="4670541"/>
+          <a:off x="9802059" y="4715983"/>
           <a:ext cx="183206" cy="181878"/>
           <a:chOff x="4829810" y="1197610"/>
           <a:chExt cx="184150" cy="184150"/>
@@ -8933,7 +8939,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="9701593" y="5005575"/>
+          <a:off x="9802059" y="5054263"/>
           <a:ext cx="183206" cy="181878"/>
           <a:chOff x="4829810" y="1197610"/>
           <a:chExt cx="184150" cy="184150"/>
@@ -9261,7 +9267,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="9701593" y="5326228"/>
+          <a:off x="9802059" y="5378162"/>
           <a:ext cx="183206" cy="181878"/>
           <a:chOff x="4829810" y="1197610"/>
           <a:chExt cx="184150" cy="184150"/>
@@ -9589,7 +9595,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="9701593" y="5661263"/>
+          <a:off x="9802059" y="5716442"/>
           <a:ext cx="183206" cy="181878"/>
           <a:chOff x="4829810" y="1197610"/>
           <a:chExt cx="184150" cy="184150"/>
@@ -9917,7 +9923,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="9701593" y="400228"/>
+          <a:off x="9802059" y="403474"/>
           <a:ext cx="183206" cy="181878"/>
           <a:chOff x="4829810" y="1197610"/>
           <a:chExt cx="184150" cy="184150"/>
@@ -10245,7 +10251,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="9701593" y="730188"/>
+          <a:off x="9802059" y="736679"/>
           <a:ext cx="183206" cy="181878"/>
           <a:chOff x="4829810" y="1197610"/>
           <a:chExt cx="184150" cy="184150"/>
@@ -10573,7 +10579,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="9701593" y="1065222"/>
+          <a:off x="9802059" y="1074959"/>
           <a:ext cx="183206" cy="181878"/>
           <a:chOff x="4829810" y="1197610"/>
           <a:chExt cx="184150" cy="184150"/>
@@ -11006,96 +11012,102 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AM18"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="N1" zoomScale="145" zoomScaleNormal="85" zoomScaleSheetLayoutView="145" workbookViewId="0">
-      <selection activeCell="AF2" sqref="AF2"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection sqref="A1:D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="5.25" customWidth="1"/>
-    <col min="2" max="2" width="2.9140625" customWidth="1"/>
+    <col min="1" max="1" width="5.19921875" customWidth="1"/>
+    <col min="2" max="2" width="2.796875" customWidth="1"/>
     <col min="3" max="3" width="3.5" customWidth="1"/>
-    <col min="4" max="4" width="2.9140625" customWidth="1"/>
-    <col min="5" max="5" width="4.33203125" customWidth="1"/>
-    <col min="6" max="6" width="2.6640625" customWidth="1"/>
-    <col min="7" max="7" width="4.33203125" customWidth="1"/>
-    <col min="8" max="8" width="5.83203125" customWidth="1"/>
-    <col min="9" max="10" width="2.58203125" customWidth="1"/>
-    <col min="11" max="11" width="1.33203125" customWidth="1"/>
-    <col min="12" max="15" width="2.58203125" customWidth="1"/>
-    <col min="16" max="16" width="1.33203125" customWidth="1"/>
-    <col min="17" max="18" width="2.58203125" customWidth="1"/>
-    <col min="19" max="19" width="9.1640625" customWidth="1"/>
-    <col min="20" max="20" width="1.75" customWidth="1"/>
-    <col min="21" max="21" width="5.25" customWidth="1"/>
-    <col min="22" max="22" width="2.9140625" customWidth="1"/>
+    <col min="4" max="4" width="2.796875" customWidth="1"/>
+    <col min="5" max="5" width="4.296875" customWidth="1"/>
+    <col min="6" max="6" width="2.69921875" customWidth="1"/>
+    <col min="7" max="7" width="4.296875" customWidth="1"/>
+    <col min="8" max="8" width="5.796875" customWidth="1"/>
+    <col min="9" max="10" width="2.69921875" customWidth="1"/>
+    <col min="11" max="11" width="1.296875" customWidth="1"/>
+    <col min="12" max="15" width="2.69921875" customWidth="1"/>
+    <col min="16" max="16" width="1.296875" customWidth="1"/>
+    <col min="17" max="18" width="2.69921875" customWidth="1"/>
+    <col min="19" max="19" width="9.19921875" customWidth="1"/>
+    <col min="20" max="20" width="1.69921875" customWidth="1"/>
+    <col min="21" max="21" width="5.19921875" customWidth="1"/>
+    <col min="22" max="22" width="2.796875" customWidth="1"/>
     <col min="23" max="23" width="3.5" customWidth="1"/>
-    <col min="24" max="24" width="2.9140625" customWidth="1"/>
-    <col min="25" max="25" width="4.33203125" customWidth="1"/>
-    <col min="26" max="26" width="2.6640625" customWidth="1"/>
-    <col min="27" max="27" width="4.33203125" customWidth="1"/>
-    <col min="28" max="28" width="5.83203125" customWidth="1"/>
-    <col min="29" max="30" width="2.58203125" customWidth="1"/>
-    <col min="31" max="31" width="1.33203125" customWidth="1"/>
-    <col min="32" max="35" width="2.58203125" customWidth="1"/>
-    <col min="36" max="36" width="1.33203125" customWidth="1"/>
-    <col min="37" max="38" width="2.58203125" customWidth="1"/>
-    <col min="39" max="39" width="9.1640625" customWidth="1"/>
+    <col min="24" max="24" width="2.796875" customWidth="1"/>
+    <col min="25" max="25" width="4.296875" customWidth="1"/>
+    <col min="26" max="26" width="2.69921875" customWidth="1"/>
+    <col min="27" max="27" width="4.296875" customWidth="1"/>
+    <col min="28" max="28" width="5.796875" customWidth="1"/>
+    <col min="29" max="30" width="2.69921875" customWidth="1"/>
+    <col min="31" max="31" width="1.296875" customWidth="1"/>
+    <col min="32" max="35" width="2.69921875" customWidth="1"/>
+    <col min="36" max="36" width="1.296875" customWidth="1"/>
+    <col min="37" max="38" width="2.69921875" customWidth="1"/>
+    <col min="39" max="39" width="9.19921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39" ht="26" customHeight="1" thickTop="1">
-      <c r="A1" s="7"/>
-      <c r="B1" s="8"/>
-      <c r="C1" s="34" t="s">
+    <row r="1" spans="1:39" ht="25.95" customHeight="1">
+      <c r="A1" s="33">
+        <f>MONTH(A5)</f>
+        <v>11</v>
+      </c>
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="35"/>
-      <c r="E1" s="9"/>
-      <c r="U1" s="18" t="s">
+      <c r="F1" s="32"/>
+      <c r="U1" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="V1" s="19" t="s">
+      <c r="V1" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="W1" s="20"/>
-      <c r="X1" s="20"/>
-      <c r="Y1" s="19" t="s">
+      <c r="W1" s="27"/>
+      <c r="X1" s="27"/>
+      <c r="Y1" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="Z1" s="20"/>
-      <c r="AA1" s="21"/>
-      <c r="AB1" s="22" t="s">
+      <c r="Z1" s="27"/>
+      <c r="AA1" s="28"/>
+      <c r="AB1" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="AC1" s="20" t="s">
+      <c r="AC1" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="AD1" s="20"/>
-      <c r="AE1" s="20"/>
-      <c r="AF1" s="20"/>
-      <c r="AG1" s="21"/>
-      <c r="AH1" s="19" t="s">
+      <c r="AD1" s="27"/>
+      <c r="AE1" s="27"/>
+      <c r="AF1" s="27"/>
+      <c r="AG1" s="28"/>
+      <c r="AH1" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="AI1" s="20"/>
-      <c r="AJ1" s="20"/>
-      <c r="AK1" s="20"/>
-      <c r="AL1" s="21"/>
-      <c r="AM1" s="23" t="s">
+      <c r="AI1" s="27"/>
+      <c r="AJ1" s="27"/>
+      <c r="AK1" s="27"/>
+      <c r="AL1" s="28"/>
+      <c r="AM1" s="30" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:39" ht="26" customHeight="1" thickBot="1">
-      <c r="A2" s="10"/>
-      <c r="B2" s="11"/>
-      <c r="C2" s="36"/>
-      <c r="D2" s="35"/>
-      <c r="E2" s="9"/>
-      <c r="U2" s="24">
-        <v>15</v>
+    <row r="2" spans="1:39" ht="25.95" customHeight="1">
+      <c r="A2" s="33"/>
+      <c r="B2" s="33"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="32"/>
+      <c r="U2" s="23">
+        <f>A18+1</f>
+        <v>43784</v>
       </c>
       <c r="V2" s="1"/>
       <c r="W2" s="4" t="s">
@@ -11107,26 +11119,27 @@
         <v>5</v>
       </c>
       <c r="AA2" s="3"/>
-      <c r="AB2" s="12"/>
-      <c r="AC2" s="12"/>
-      <c r="AD2" s="13"/>
-      <c r="AE2" s="13" t="s">
+      <c r="AB2" s="7"/>
+      <c r="AC2" s="7"/>
+      <c r="AD2" s="8"/>
+      <c r="AE2" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="AF2" s="13"/>
-      <c r="AG2" s="17"/>
-      <c r="AH2" s="12"/>
-      <c r="AI2" s="13"/>
-      <c r="AJ2" s="13" t="s">
+      <c r="AF2" s="8"/>
+      <c r="AG2" s="12"/>
+      <c r="AH2" s="7"/>
+      <c r="AI2" s="8"/>
+      <c r="AJ2" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="AK2" s="14"/>
-      <c r="AL2" s="15"/>
-      <c r="AM2" s="25"/>
+      <c r="AK2" s="9"/>
+      <c r="AL2" s="10"/>
+      <c r="AM2" s="24"/>
     </row>
-    <row r="3" spans="1:39" ht="26" customHeight="1" thickTop="1">
-      <c r="U3" s="24">
-        <v>16</v>
+    <row r="3" spans="1:39" ht="25.95" customHeight="1">
+      <c r="U3" s="22">
+        <f>U2+1</f>
+        <v>43785</v>
       </c>
       <c r="V3" s="2"/>
       <c r="W3" s="4" t="s">
@@ -11138,59 +11151,60 @@
         <v>5</v>
       </c>
       <c r="AA3" s="3"/>
-      <c r="AB3" s="12"/>
-      <c r="AC3" s="12"/>
-      <c r="AD3" s="13"/>
-      <c r="AE3" s="13" t="s">
+      <c r="AB3" s="7"/>
+      <c r="AC3" s="7"/>
+      <c r="AD3" s="8"/>
+      <c r="AE3" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="AF3" s="13"/>
-      <c r="AG3" s="17"/>
-      <c r="AH3" s="12"/>
-      <c r="AI3" s="13"/>
-      <c r="AJ3" s="13" t="s">
+      <c r="AF3" s="8"/>
+      <c r="AG3" s="12"/>
+      <c r="AH3" s="7"/>
+      <c r="AI3" s="8"/>
+      <c r="AJ3" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="AK3" s="14"/>
-      <c r="AL3" s="16"/>
-      <c r="AM3" s="25"/>
+      <c r="AK3" s="9"/>
+      <c r="AL3" s="11"/>
+      <c r="AM3" s="13"/>
     </row>
-    <row r="4" spans="1:39" ht="26" customHeight="1">
-      <c r="A4" s="18" t="s">
+    <row r="4" spans="1:39" ht="25.95" customHeight="1">
+      <c r="A4" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="19" t="s">
+      <c r="B4" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="20"/>
-      <c r="D4" s="20"/>
-      <c r="E4" s="19" t="s">
+      <c r="C4" s="27"/>
+      <c r="D4" s="27"/>
+      <c r="E4" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="20"/>
-      <c r="G4" s="21"/>
-      <c r="H4" s="22" t="s">
+      <c r="F4" s="27"/>
+      <c r="G4" s="28"/>
+      <c r="H4" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="I4" s="20" t="s">
+      <c r="I4" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="J4" s="20"/>
-      <c r="K4" s="20"/>
-      <c r="L4" s="20"/>
-      <c r="M4" s="21"/>
-      <c r="N4" s="19" t="s">
+      <c r="J4" s="27"/>
+      <c r="K4" s="27"/>
+      <c r="L4" s="27"/>
+      <c r="M4" s="28"/>
+      <c r="N4" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="O4" s="20"/>
-      <c r="P4" s="20"/>
-      <c r="Q4" s="20"/>
-      <c r="R4" s="21"/>
-      <c r="S4" s="23" t="s">
+      <c r="O4" s="27"/>
+      <c r="P4" s="27"/>
+      <c r="Q4" s="27"/>
+      <c r="R4" s="28"/>
+      <c r="S4" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="U4" s="24">
-        <v>17</v>
+      <c r="U4" s="22">
+        <f t="shared" ref="U4:U17" si="0">U3+1</f>
+        <v>43786</v>
       </c>
       <c r="V4" s="2"/>
       <c r="W4" s="4" t="s">
@@ -11202,26 +11216,26 @@
         <v>5</v>
       </c>
       <c r="AA4" s="3"/>
-      <c r="AB4" s="12"/>
-      <c r="AC4" s="12"/>
-      <c r="AD4" s="13"/>
-      <c r="AE4" s="13" t="s">
+      <c r="AB4" s="7"/>
+      <c r="AC4" s="7"/>
+      <c r="AD4" s="8"/>
+      <c r="AE4" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="AF4" s="13"/>
-      <c r="AG4" s="17"/>
-      <c r="AH4" s="12"/>
-      <c r="AI4" s="13"/>
-      <c r="AJ4" s="13" t="s">
+      <c r="AF4" s="8"/>
+      <c r="AG4" s="12"/>
+      <c r="AH4" s="7"/>
+      <c r="AI4" s="8"/>
+      <c r="AJ4" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="AK4" s="14"/>
-      <c r="AL4" s="16"/>
-      <c r="AM4" s="25"/>
+      <c r="AK4" s="9"/>
+      <c r="AL4" s="11"/>
+      <c r="AM4" s="13"/>
     </row>
-    <row r="5" spans="1:39" ht="26" customHeight="1">
-      <c r="A5" s="24">
-        <v>1</v>
+    <row r="5" spans="1:39" ht="25.95" customHeight="1">
+      <c r="A5" s="23">
+        <v>43770</v>
       </c>
       <c r="B5" s="1"/>
       <c r="C5" s="4" t="s">
@@ -11233,24 +11247,25 @@
         <v>5</v>
       </c>
       <c r="G5" s="3"/>
-      <c r="H5" s="12"/>
-      <c r="I5" s="12"/>
-      <c r="J5" s="13"/>
-      <c r="K5" s="13" t="s">
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="8"/>
+      <c r="K5" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="L5" s="13"/>
-      <c r="M5" s="17"/>
-      <c r="N5" s="12"/>
-      <c r="O5" s="13"/>
-      <c r="P5" s="13" t="s">
+      <c r="L5" s="8"/>
+      <c r="M5" s="12"/>
+      <c r="N5" s="7"/>
+      <c r="O5" s="8"/>
+      <c r="P5" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="Q5" s="14"/>
-      <c r="R5" s="15"/>
-      <c r="S5" s="25"/>
-      <c r="U5" s="24">
-        <v>18</v>
+      <c r="Q5" s="9"/>
+      <c r="R5" s="10"/>
+      <c r="S5" s="24"/>
+      <c r="U5" s="22">
+        <f t="shared" si="0"/>
+        <v>43787</v>
       </c>
       <c r="V5" s="2"/>
       <c r="W5" s="4" t="s">
@@ -11262,26 +11277,27 @@
         <v>5</v>
       </c>
       <c r="AA5" s="3"/>
-      <c r="AB5" s="12"/>
-      <c r="AC5" s="12"/>
-      <c r="AD5" s="13"/>
-      <c r="AE5" s="13" t="s">
+      <c r="AB5" s="7"/>
+      <c r="AC5" s="7"/>
+      <c r="AD5" s="8"/>
+      <c r="AE5" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="AF5" s="13"/>
-      <c r="AG5" s="17"/>
-      <c r="AH5" s="12"/>
-      <c r="AI5" s="13"/>
-      <c r="AJ5" s="13" t="s">
+      <c r="AF5" s="8"/>
+      <c r="AG5" s="12"/>
+      <c r="AH5" s="7"/>
+      <c r="AI5" s="8"/>
+      <c r="AJ5" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="AK5" s="14"/>
-      <c r="AL5" s="16"/>
-      <c r="AM5" s="25"/>
+      <c r="AK5" s="9"/>
+      <c r="AL5" s="11"/>
+      <c r="AM5" s="13"/>
     </row>
-    <row r="6" spans="1:39" ht="26" customHeight="1">
-      <c r="A6" s="24">
-        <v>2</v>
+    <row r="6" spans="1:39" ht="25.95" customHeight="1">
+      <c r="A6" s="22">
+        <f>A5+1</f>
+        <v>43771</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" s="4" t="s">
@@ -11293,24 +11309,25 @@
         <v>5</v>
       </c>
       <c r="G6" s="3"/>
-      <c r="H6" s="12"/>
-      <c r="I6" s="12"/>
-      <c r="J6" s="13"/>
-      <c r="K6" s="13" t="s">
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="8"/>
+      <c r="K6" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="L6" s="13"/>
-      <c r="M6" s="17"/>
-      <c r="N6" s="12"/>
-      <c r="O6" s="13"/>
-      <c r="P6" s="13" t="s">
+      <c r="L6" s="8"/>
+      <c r="M6" s="12"/>
+      <c r="N6" s="7"/>
+      <c r="O6" s="8"/>
+      <c r="P6" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="Q6" s="14"/>
-      <c r="R6" s="16"/>
-      <c r="S6" s="25"/>
-      <c r="U6" s="24">
-        <v>19</v>
+      <c r="Q6" s="9"/>
+      <c r="R6" s="11"/>
+      <c r="S6" s="13"/>
+      <c r="U6" s="22">
+        <f t="shared" si="0"/>
+        <v>43788</v>
       </c>
       <c r="V6" s="2"/>
       <c r="W6" s="4" t="s">
@@ -11322,26 +11339,27 @@
         <v>5</v>
       </c>
       <c r="AA6" s="3"/>
-      <c r="AB6" s="12"/>
-      <c r="AC6" s="12"/>
-      <c r="AD6" s="13"/>
-      <c r="AE6" s="13" t="s">
+      <c r="AB6" s="7"/>
+      <c r="AC6" s="7"/>
+      <c r="AD6" s="8"/>
+      <c r="AE6" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="AF6" s="13"/>
-      <c r="AG6" s="17"/>
-      <c r="AH6" s="12"/>
-      <c r="AI6" s="13"/>
-      <c r="AJ6" s="13" t="s">
+      <c r="AF6" s="8"/>
+      <c r="AG6" s="12"/>
+      <c r="AH6" s="7"/>
+      <c r="AI6" s="8"/>
+      <c r="AJ6" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="AK6" s="14"/>
-      <c r="AL6" s="16"/>
-      <c r="AM6" s="25"/>
+      <c r="AK6" s="9"/>
+      <c r="AL6" s="11"/>
+      <c r="AM6" s="13"/>
     </row>
-    <row r="7" spans="1:39" ht="26" customHeight="1">
-      <c r="A7" s="24">
-        <v>3</v>
+    <row r="7" spans="1:39" ht="25.95" customHeight="1">
+      <c r="A7" s="22">
+        <f t="shared" ref="A7:A18" si="1">A6+1</f>
+        <v>43772</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" s="4" t="s">
@@ -11353,24 +11371,25 @@
         <v>5</v>
       </c>
       <c r="G7" s="3"/>
-      <c r="H7" s="12"/>
-      <c r="I7" s="12"/>
-      <c r="J7" s="13"/>
-      <c r="K7" s="13" t="s">
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="8"/>
+      <c r="K7" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="L7" s="13"/>
-      <c r="M7" s="17"/>
-      <c r="N7" s="12"/>
-      <c r="O7" s="13"/>
-      <c r="P7" s="13" t="s">
+      <c r="L7" s="8"/>
+      <c r="M7" s="12"/>
+      <c r="N7" s="7"/>
+      <c r="O7" s="8"/>
+      <c r="P7" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="Q7" s="14"/>
-      <c r="R7" s="16"/>
-      <c r="S7" s="25"/>
-      <c r="U7" s="24">
-        <v>20</v>
+      <c r="Q7" s="9"/>
+      <c r="R7" s="11"/>
+      <c r="S7" s="13"/>
+      <c r="U7" s="22">
+        <f t="shared" si="0"/>
+        <v>43789</v>
       </c>
       <c r="V7" s="2"/>
       <c r="W7" s="4" t="s">
@@ -11382,26 +11401,27 @@
         <v>5</v>
       </c>
       <c r="AA7" s="3"/>
-      <c r="AB7" s="12"/>
-      <c r="AC7" s="12"/>
-      <c r="AD7" s="13"/>
-      <c r="AE7" s="13" t="s">
+      <c r="AB7" s="7"/>
+      <c r="AC7" s="7"/>
+      <c r="AD7" s="8"/>
+      <c r="AE7" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="AF7" s="13"/>
-      <c r="AG7" s="17"/>
-      <c r="AH7" s="12"/>
-      <c r="AI7" s="13"/>
-      <c r="AJ7" s="13" t="s">
+      <c r="AF7" s="8"/>
+      <c r="AG7" s="12"/>
+      <c r="AH7" s="7"/>
+      <c r="AI7" s="8"/>
+      <c r="AJ7" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="AK7" s="14"/>
-      <c r="AL7" s="16"/>
-      <c r="AM7" s="25"/>
+      <c r="AK7" s="9"/>
+      <c r="AL7" s="11"/>
+      <c r="AM7" s="13"/>
     </row>
-    <row r="8" spans="1:39" ht="26" customHeight="1">
-      <c r="A8" s="24">
-        <v>4</v>
+    <row r="8" spans="1:39" ht="25.95" customHeight="1">
+      <c r="A8" s="22">
+        <f t="shared" si="1"/>
+        <v>43773</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" s="4" t="s">
@@ -11413,24 +11433,25 @@
         <v>5</v>
       </c>
       <c r="G8" s="3"/>
-      <c r="H8" s="12"/>
-      <c r="I8" s="12"/>
-      <c r="J8" s="13"/>
-      <c r="K8" s="13" t="s">
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="8"/>
+      <c r="K8" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="L8" s="13"/>
-      <c r="M8" s="17"/>
-      <c r="N8" s="12"/>
-      <c r="O8" s="13"/>
-      <c r="P8" s="13" t="s">
+      <c r="L8" s="8"/>
+      <c r="M8" s="12"/>
+      <c r="N8" s="7"/>
+      <c r="O8" s="8"/>
+      <c r="P8" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="Q8" s="14"/>
-      <c r="R8" s="16"/>
-      <c r="S8" s="25"/>
-      <c r="U8" s="24">
-        <v>21</v>
+      <c r="Q8" s="9"/>
+      <c r="R8" s="11"/>
+      <c r="S8" s="13"/>
+      <c r="U8" s="22">
+        <f t="shared" si="0"/>
+        <v>43790</v>
       </c>
       <c r="V8" s="2"/>
       <c r="W8" s="4" t="s">
@@ -11442,26 +11463,27 @@
         <v>5</v>
       </c>
       <c r="AA8" s="3"/>
-      <c r="AB8" s="12"/>
-      <c r="AC8" s="12"/>
-      <c r="AD8" s="13"/>
-      <c r="AE8" s="13" t="s">
+      <c r="AB8" s="7"/>
+      <c r="AC8" s="7"/>
+      <c r="AD8" s="8"/>
+      <c r="AE8" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="AF8" s="13"/>
-      <c r="AG8" s="17"/>
-      <c r="AH8" s="12"/>
-      <c r="AI8" s="13"/>
-      <c r="AJ8" s="13" t="s">
+      <c r="AF8" s="8"/>
+      <c r="AG8" s="12"/>
+      <c r="AH8" s="7"/>
+      <c r="AI8" s="8"/>
+      <c r="AJ8" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="AK8" s="14"/>
-      <c r="AL8" s="16"/>
-      <c r="AM8" s="25"/>
+      <c r="AK8" s="9"/>
+      <c r="AL8" s="11"/>
+      <c r="AM8" s="13"/>
     </row>
-    <row r="9" spans="1:39" ht="26" customHeight="1">
-      <c r="A9" s="24">
-        <v>5</v>
+    <row r="9" spans="1:39" ht="25.95" customHeight="1">
+      <c r="A9" s="22">
+        <f t="shared" si="1"/>
+        <v>43774</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" s="4" t="s">
@@ -11473,24 +11495,25 @@
         <v>5</v>
       </c>
       <c r="G9" s="3"/>
-      <c r="H9" s="12"/>
-      <c r="I9" s="12"/>
-      <c r="J9" s="13"/>
-      <c r="K9" s="13" t="s">
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="8"/>
+      <c r="K9" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="L9" s="13"/>
-      <c r="M9" s="17"/>
-      <c r="N9" s="12"/>
-      <c r="O9" s="13"/>
-      <c r="P9" s="13" t="s">
+      <c r="L9" s="8"/>
+      <c r="M9" s="12"/>
+      <c r="N9" s="7"/>
+      <c r="O9" s="8"/>
+      <c r="P9" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="Q9" s="14"/>
-      <c r="R9" s="16"/>
-      <c r="S9" s="25"/>
-      <c r="U9" s="24">
-        <v>22</v>
+      <c r="Q9" s="9"/>
+      <c r="R9" s="11"/>
+      <c r="S9" s="13"/>
+      <c r="U9" s="22">
+        <f t="shared" si="0"/>
+        <v>43791</v>
       </c>
       <c r="V9" s="2"/>
       <c r="W9" s="4" t="s">
@@ -11502,26 +11525,27 @@
         <v>5</v>
       </c>
       <c r="AA9" s="3"/>
-      <c r="AB9" s="12"/>
-      <c r="AC9" s="12"/>
-      <c r="AD9" s="13"/>
-      <c r="AE9" s="13" t="s">
+      <c r="AB9" s="7"/>
+      <c r="AC9" s="7"/>
+      <c r="AD9" s="8"/>
+      <c r="AE9" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="AF9" s="13"/>
-      <c r="AG9" s="17"/>
-      <c r="AH9" s="12"/>
-      <c r="AI9" s="13"/>
-      <c r="AJ9" s="13" t="s">
+      <c r="AF9" s="8"/>
+      <c r="AG9" s="12"/>
+      <c r="AH9" s="7"/>
+      <c r="AI9" s="8"/>
+      <c r="AJ9" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="AK9" s="14"/>
-      <c r="AL9" s="16"/>
-      <c r="AM9" s="25"/>
+      <c r="AK9" s="9"/>
+      <c r="AL9" s="11"/>
+      <c r="AM9" s="13"/>
     </row>
-    <row r="10" spans="1:39" ht="26" customHeight="1">
-      <c r="A10" s="24">
-        <v>6</v>
+    <row r="10" spans="1:39" ht="25.95" customHeight="1">
+      <c r="A10" s="22">
+        <f t="shared" si="1"/>
+        <v>43775</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" s="4" t="s">
@@ -11533,24 +11557,25 @@
         <v>5</v>
       </c>
       <c r="G10" s="3"/>
-      <c r="H10" s="12"/>
-      <c r="I10" s="12"/>
-      <c r="J10" s="13"/>
-      <c r="K10" s="13" t="s">
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="8"/>
+      <c r="K10" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="L10" s="13"/>
-      <c r="M10" s="17"/>
-      <c r="N10" s="12"/>
-      <c r="O10" s="13"/>
-      <c r="P10" s="13" t="s">
+      <c r="L10" s="8"/>
+      <c r="M10" s="12"/>
+      <c r="N10" s="7"/>
+      <c r="O10" s="8"/>
+      <c r="P10" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="Q10" s="14"/>
-      <c r="R10" s="16"/>
-      <c r="S10" s="25"/>
-      <c r="U10" s="24">
-        <v>23</v>
+      <c r="Q10" s="9"/>
+      <c r="R10" s="11"/>
+      <c r="S10" s="13"/>
+      <c r="U10" s="22">
+        <f t="shared" si="0"/>
+        <v>43792</v>
       </c>
       <c r="V10" s="2"/>
       <c r="W10" s="4" t="s">
@@ -11562,26 +11587,27 @@
         <v>5</v>
       </c>
       <c r="AA10" s="3"/>
-      <c r="AB10" s="12"/>
-      <c r="AC10" s="12"/>
-      <c r="AD10" s="13"/>
-      <c r="AE10" s="13" t="s">
+      <c r="AB10" s="7"/>
+      <c r="AC10" s="7"/>
+      <c r="AD10" s="8"/>
+      <c r="AE10" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="AF10" s="13"/>
-      <c r="AG10" s="17"/>
-      <c r="AH10" s="12"/>
-      <c r="AI10" s="13"/>
-      <c r="AJ10" s="13" t="s">
+      <c r="AF10" s="8"/>
+      <c r="AG10" s="12"/>
+      <c r="AH10" s="7"/>
+      <c r="AI10" s="8"/>
+      <c r="AJ10" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="AK10" s="14"/>
-      <c r="AL10" s="16"/>
-      <c r="AM10" s="25"/>
+      <c r="AK10" s="9"/>
+      <c r="AL10" s="11"/>
+      <c r="AM10" s="13"/>
     </row>
-    <row r="11" spans="1:39" ht="26" customHeight="1">
-      <c r="A11" s="24">
-        <v>7</v>
+    <row r="11" spans="1:39" ht="25.95" customHeight="1">
+      <c r="A11" s="22">
+        <f t="shared" si="1"/>
+        <v>43776</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" s="4" t="s">
@@ -11593,24 +11619,25 @@
         <v>5</v>
       </c>
       <c r="G11" s="3"/>
-      <c r="H11" s="12"/>
-      <c r="I11" s="12"/>
-      <c r="J11" s="13"/>
-      <c r="K11" s="13" t="s">
+      <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="8"/>
+      <c r="K11" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="L11" s="13"/>
-      <c r="M11" s="17"/>
-      <c r="N11" s="12"/>
-      <c r="O11" s="13"/>
-      <c r="P11" s="13" t="s">
+      <c r="L11" s="8"/>
+      <c r="M11" s="12"/>
+      <c r="N11" s="7"/>
+      <c r="O11" s="8"/>
+      <c r="P11" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="Q11" s="14"/>
-      <c r="R11" s="16"/>
-      <c r="S11" s="25"/>
-      <c r="U11" s="24">
-        <v>24</v>
+      <c r="Q11" s="9"/>
+      <c r="R11" s="11"/>
+      <c r="S11" s="13"/>
+      <c r="U11" s="22">
+        <f t="shared" si="0"/>
+        <v>43793</v>
       </c>
       <c r="V11" s="2"/>
       <c r="W11" s="4" t="s">
@@ -11622,26 +11649,27 @@
         <v>5</v>
       </c>
       <c r="AA11" s="3"/>
-      <c r="AB11" s="12"/>
-      <c r="AC11" s="12"/>
-      <c r="AD11" s="13"/>
-      <c r="AE11" s="13" t="s">
+      <c r="AB11" s="7"/>
+      <c r="AC11" s="7"/>
+      <c r="AD11" s="8"/>
+      <c r="AE11" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="AF11" s="13"/>
-      <c r="AG11" s="17"/>
-      <c r="AH11" s="12"/>
-      <c r="AI11" s="13"/>
-      <c r="AJ11" s="13" t="s">
+      <c r="AF11" s="8"/>
+      <c r="AG11" s="12"/>
+      <c r="AH11" s="7"/>
+      <c r="AI11" s="8"/>
+      <c r="AJ11" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="AK11" s="14"/>
-      <c r="AL11" s="16"/>
-      <c r="AM11" s="25"/>
+      <c r="AK11" s="9"/>
+      <c r="AL11" s="11"/>
+      <c r="AM11" s="13"/>
     </row>
-    <row r="12" spans="1:39" ht="26" customHeight="1">
-      <c r="A12" s="24">
-        <v>8</v>
+    <row r="12" spans="1:39" ht="25.95" customHeight="1">
+      <c r="A12" s="22">
+        <f t="shared" si="1"/>
+        <v>43777</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" s="4" t="s">
@@ -11653,24 +11681,25 @@
         <v>5</v>
       </c>
       <c r="G12" s="3"/>
-      <c r="H12" s="12"/>
-      <c r="I12" s="12"/>
-      <c r="J12" s="13"/>
-      <c r="K12" s="13" t="s">
+      <c r="H12" s="7"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="8"/>
+      <c r="K12" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="L12" s="13"/>
-      <c r="M12" s="17"/>
-      <c r="N12" s="12"/>
-      <c r="O12" s="13"/>
-      <c r="P12" s="13" t="s">
+      <c r="L12" s="8"/>
+      <c r="M12" s="12"/>
+      <c r="N12" s="7"/>
+      <c r="O12" s="8"/>
+      <c r="P12" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="Q12" s="14"/>
-      <c r="R12" s="16"/>
-      <c r="S12" s="25"/>
-      <c r="U12" s="24">
-        <v>25</v>
+      <c r="Q12" s="9"/>
+      <c r="R12" s="11"/>
+      <c r="S12" s="13"/>
+      <c r="U12" s="22">
+        <f t="shared" si="0"/>
+        <v>43794</v>
       </c>
       <c r="V12" s="2"/>
       <c r="W12" s="4" t="s">
@@ -11682,26 +11711,27 @@
         <v>5</v>
       </c>
       <c r="AA12" s="3"/>
-      <c r="AB12" s="12"/>
-      <c r="AC12" s="12"/>
-      <c r="AD12" s="13"/>
-      <c r="AE12" s="13" t="s">
+      <c r="AB12" s="7"/>
+      <c r="AC12" s="7"/>
+      <c r="AD12" s="8"/>
+      <c r="AE12" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="AF12" s="13"/>
-      <c r="AG12" s="17"/>
-      <c r="AH12" s="12"/>
-      <c r="AI12" s="13"/>
-      <c r="AJ12" s="13" t="s">
+      <c r="AF12" s="8"/>
+      <c r="AG12" s="12"/>
+      <c r="AH12" s="7"/>
+      <c r="AI12" s="8"/>
+      <c r="AJ12" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="AK12" s="14"/>
-      <c r="AL12" s="16"/>
-      <c r="AM12" s="25"/>
+      <c r="AK12" s="9"/>
+      <c r="AL12" s="11"/>
+      <c r="AM12" s="13"/>
     </row>
-    <row r="13" spans="1:39" ht="26" customHeight="1">
-      <c r="A13" s="24">
-        <v>9</v>
+    <row r="13" spans="1:39" ht="25.95" customHeight="1">
+      <c r="A13" s="22">
+        <f t="shared" si="1"/>
+        <v>43778</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" s="4" t="s">
@@ -11713,24 +11743,25 @@
         <v>5</v>
       </c>
       <c r="G13" s="3"/>
-      <c r="H13" s="12"/>
-      <c r="I13" s="12"/>
-      <c r="J13" s="13"/>
-      <c r="K13" s="13" t="s">
+      <c r="H13" s="7"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="8"/>
+      <c r="K13" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="L13" s="13"/>
-      <c r="M13" s="17"/>
-      <c r="N13" s="12"/>
-      <c r="O13" s="13"/>
-      <c r="P13" s="13" t="s">
+      <c r="L13" s="8"/>
+      <c r="M13" s="12"/>
+      <c r="N13" s="7"/>
+      <c r="O13" s="8"/>
+      <c r="P13" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="Q13" s="14"/>
-      <c r="R13" s="16"/>
-      <c r="S13" s="25"/>
-      <c r="U13" s="24">
-        <v>26</v>
+      <c r="Q13" s="9"/>
+      <c r="R13" s="11"/>
+      <c r="S13" s="13"/>
+      <c r="U13" s="22">
+        <f t="shared" si="0"/>
+        <v>43795</v>
       </c>
       <c r="V13" s="2"/>
       <c r="W13" s="4" t="s">
@@ -11742,26 +11773,27 @@
         <v>5</v>
       </c>
       <c r="AA13" s="3"/>
-      <c r="AB13" s="12"/>
-      <c r="AC13" s="12"/>
-      <c r="AD13" s="13"/>
-      <c r="AE13" s="13" t="s">
+      <c r="AB13" s="7"/>
+      <c r="AC13" s="7"/>
+      <c r="AD13" s="8"/>
+      <c r="AE13" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="AF13" s="13"/>
-      <c r="AG13" s="17"/>
-      <c r="AH13" s="12"/>
-      <c r="AI13" s="13"/>
-      <c r="AJ13" s="13" t="s">
+      <c r="AF13" s="8"/>
+      <c r="AG13" s="12"/>
+      <c r="AH13" s="7"/>
+      <c r="AI13" s="8"/>
+      <c r="AJ13" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="AK13" s="14"/>
-      <c r="AL13" s="16"/>
-      <c r="AM13" s="25"/>
+      <c r="AK13" s="9"/>
+      <c r="AL13" s="11"/>
+      <c r="AM13" s="13"/>
     </row>
-    <row r="14" spans="1:39" ht="26" customHeight="1">
-      <c r="A14" s="24">
-        <v>10</v>
+    <row r="14" spans="1:39" ht="25.95" customHeight="1">
+      <c r="A14" s="22">
+        <f t="shared" si="1"/>
+        <v>43779</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" s="4" t="s">
@@ -11773,24 +11805,25 @@
         <v>5</v>
       </c>
       <c r="G14" s="3"/>
-      <c r="H14" s="12"/>
-      <c r="I14" s="12"/>
-      <c r="J14" s="13"/>
-      <c r="K14" s="13" t="s">
+      <c r="H14" s="7"/>
+      <c r="I14" s="7"/>
+      <c r="J14" s="8"/>
+      <c r="K14" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="L14" s="13"/>
-      <c r="M14" s="17"/>
-      <c r="N14" s="12"/>
-      <c r="O14" s="13"/>
-      <c r="P14" s="13" t="s">
+      <c r="L14" s="8"/>
+      <c r="M14" s="12"/>
+      <c r="N14" s="7"/>
+      <c r="O14" s="8"/>
+      <c r="P14" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="Q14" s="14"/>
-      <c r="R14" s="16"/>
-      <c r="S14" s="25"/>
-      <c r="U14" s="24">
-        <v>27</v>
+      <c r="Q14" s="9"/>
+      <c r="R14" s="11"/>
+      <c r="S14" s="13"/>
+      <c r="U14" s="22">
+        <f t="shared" si="0"/>
+        <v>43796</v>
       </c>
       <c r="V14" s="2"/>
       <c r="W14" s="4" t="s">
@@ -11802,26 +11835,27 @@
         <v>5</v>
       </c>
       <c r="AA14" s="3"/>
-      <c r="AB14" s="12"/>
-      <c r="AC14" s="12"/>
-      <c r="AD14" s="13"/>
-      <c r="AE14" s="13" t="s">
+      <c r="AB14" s="7"/>
+      <c r="AC14" s="7"/>
+      <c r="AD14" s="8"/>
+      <c r="AE14" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="AF14" s="13"/>
-      <c r="AG14" s="17"/>
-      <c r="AH14" s="12"/>
-      <c r="AI14" s="13"/>
-      <c r="AJ14" s="13" t="s">
+      <c r="AF14" s="8"/>
+      <c r="AG14" s="12"/>
+      <c r="AH14" s="7"/>
+      <c r="AI14" s="8"/>
+      <c r="AJ14" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="AK14" s="14"/>
-      <c r="AL14" s="16"/>
-      <c r="AM14" s="25"/>
+      <c r="AK14" s="9"/>
+      <c r="AL14" s="11"/>
+      <c r="AM14" s="13"/>
     </row>
-    <row r="15" spans="1:39" ht="26" customHeight="1">
-      <c r="A15" s="24">
-        <v>11</v>
+    <row r="15" spans="1:39" ht="25.95" customHeight="1">
+      <c r="A15" s="22">
+        <f t="shared" si="1"/>
+        <v>43780</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" s="4" t="s">
@@ -11833,24 +11867,25 @@
         <v>5</v>
       </c>
       <c r="G15" s="3"/>
-      <c r="H15" s="12"/>
-      <c r="I15" s="12"/>
-      <c r="J15" s="13"/>
-      <c r="K15" s="13" t="s">
+      <c r="H15" s="7"/>
+      <c r="I15" s="7"/>
+      <c r="J15" s="8"/>
+      <c r="K15" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="L15" s="13"/>
-      <c r="M15" s="17"/>
-      <c r="N15" s="12"/>
-      <c r="O15" s="13"/>
-      <c r="P15" s="13" t="s">
+      <c r="L15" s="8"/>
+      <c r="M15" s="12"/>
+      <c r="N15" s="7"/>
+      <c r="O15" s="8"/>
+      <c r="P15" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="Q15" s="14"/>
-      <c r="R15" s="16"/>
-      <c r="S15" s="25"/>
-      <c r="U15" s="24">
-        <v>28</v>
+      <c r="Q15" s="9"/>
+      <c r="R15" s="11"/>
+      <c r="S15" s="13"/>
+      <c r="U15" s="22">
+        <f t="shared" si="0"/>
+        <v>43797</v>
       </c>
       <c r="V15" s="2"/>
       <c r="W15" s="4" t="s">
@@ -11862,26 +11897,27 @@
         <v>5</v>
       </c>
       <c r="AA15" s="3"/>
-      <c r="AB15" s="12"/>
-      <c r="AC15" s="12"/>
-      <c r="AD15" s="13"/>
-      <c r="AE15" s="13" t="s">
+      <c r="AB15" s="7"/>
+      <c r="AC15" s="7"/>
+      <c r="AD15" s="8"/>
+      <c r="AE15" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="AF15" s="13"/>
-      <c r="AG15" s="17"/>
-      <c r="AH15" s="12"/>
-      <c r="AI15" s="13"/>
-      <c r="AJ15" s="13" t="s">
+      <c r="AF15" s="8"/>
+      <c r="AG15" s="12"/>
+      <c r="AH15" s="7"/>
+      <c r="AI15" s="8"/>
+      <c r="AJ15" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="AK15" s="14"/>
-      <c r="AL15" s="16"/>
-      <c r="AM15" s="25"/>
+      <c r="AK15" s="9"/>
+      <c r="AL15" s="11"/>
+      <c r="AM15" s="13"/>
     </row>
-    <row r="16" spans="1:39" ht="26" customHeight="1">
-      <c r="A16" s="24">
-        <v>12</v>
+    <row r="16" spans="1:39" ht="25.95" customHeight="1">
+      <c r="A16" s="22">
+        <f t="shared" si="1"/>
+        <v>43781</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" s="4" t="s">
@@ -11893,24 +11929,25 @@
         <v>5</v>
       </c>
       <c r="G16" s="3"/>
-      <c r="H16" s="12"/>
-      <c r="I16" s="12"/>
-      <c r="J16" s="13"/>
-      <c r="K16" s="13" t="s">
+      <c r="H16" s="7"/>
+      <c r="I16" s="7"/>
+      <c r="J16" s="8"/>
+      <c r="K16" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="L16" s="13"/>
-      <c r="M16" s="17"/>
-      <c r="N16" s="12"/>
-      <c r="O16" s="13"/>
-      <c r="P16" s="13" t="s">
+      <c r="L16" s="8"/>
+      <c r="M16" s="12"/>
+      <c r="N16" s="7"/>
+      <c r="O16" s="8"/>
+      <c r="P16" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="Q16" s="14"/>
-      <c r="R16" s="16"/>
-      <c r="S16" s="25"/>
-      <c r="U16" s="24">
-        <v>29</v>
+      <c r="Q16" s="9"/>
+      <c r="R16" s="11"/>
+      <c r="S16" s="13"/>
+      <c r="U16" s="22">
+        <f t="shared" si="0"/>
+        <v>43798</v>
       </c>
       <c r="V16" s="2"/>
       <c r="W16" s="4" t="s">
@@ -11922,26 +11959,27 @@
         <v>5</v>
       </c>
       <c r="AA16" s="3"/>
-      <c r="AB16" s="12"/>
-      <c r="AC16" s="12"/>
-      <c r="AD16" s="13"/>
-      <c r="AE16" s="13" t="s">
+      <c r="AB16" s="7"/>
+      <c r="AC16" s="7"/>
+      <c r="AD16" s="8"/>
+      <c r="AE16" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="AF16" s="13"/>
-      <c r="AG16" s="17"/>
-      <c r="AH16" s="12"/>
-      <c r="AI16" s="13"/>
-      <c r="AJ16" s="13" t="s">
+      <c r="AF16" s="8"/>
+      <c r="AG16" s="12"/>
+      <c r="AH16" s="7"/>
+      <c r="AI16" s="8"/>
+      <c r="AJ16" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="AK16" s="14"/>
-      <c r="AL16" s="16"/>
-      <c r="AM16" s="25"/>
+      <c r="AK16" s="9"/>
+      <c r="AL16" s="11"/>
+      <c r="AM16" s="13"/>
     </row>
-    <row r="17" spans="1:39" ht="26" customHeight="1">
-      <c r="A17" s="24">
-        <v>13</v>
+    <row r="17" spans="1:39" ht="25.95" customHeight="1">
+      <c r="A17" s="22">
+        <f t="shared" si="1"/>
+        <v>43782</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" s="4" t="s">
@@ -11953,24 +11991,25 @@
         <v>5</v>
       </c>
       <c r="G17" s="3"/>
-      <c r="H17" s="12"/>
-      <c r="I17" s="12"/>
-      <c r="J17" s="13"/>
-      <c r="K17" s="13" t="s">
+      <c r="H17" s="7"/>
+      <c r="I17" s="7"/>
+      <c r="J17" s="8"/>
+      <c r="K17" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="L17" s="13"/>
-      <c r="M17" s="17"/>
-      <c r="N17" s="12"/>
-      <c r="O17" s="13"/>
-      <c r="P17" s="13" t="s">
+      <c r="L17" s="8"/>
+      <c r="M17" s="12"/>
+      <c r="N17" s="7"/>
+      <c r="O17" s="8"/>
+      <c r="P17" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="Q17" s="14"/>
-      <c r="R17" s="16"/>
-      <c r="S17" s="25"/>
-      <c r="U17" s="24">
-        <v>30</v>
+      <c r="Q17" s="9"/>
+      <c r="R17" s="11"/>
+      <c r="S17" s="13"/>
+      <c r="U17" s="22">
+        <f t="shared" si="0"/>
+        <v>43799</v>
       </c>
       <c r="V17" s="2"/>
       <c r="W17" s="4" t="s">
@@ -11982,90 +12021,101 @@
         <v>5</v>
       </c>
       <c r="AA17" s="3"/>
-      <c r="AB17" s="12"/>
-      <c r="AC17" s="12"/>
-      <c r="AD17" s="13"/>
-      <c r="AE17" s="13" t="s">
+      <c r="AB17" s="7"/>
+      <c r="AC17" s="7"/>
+      <c r="AD17" s="8"/>
+      <c r="AE17" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="AF17" s="13"/>
-      <c r="AG17" s="17"/>
-      <c r="AH17" s="12"/>
-      <c r="AI17" s="13"/>
-      <c r="AJ17" s="13" t="s">
+      <c r="AF17" s="8"/>
+      <c r="AG17" s="12"/>
+      <c r="AH17" s="7"/>
+      <c r="AI17" s="8"/>
+      <c r="AJ17" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="AK17" s="14"/>
-      <c r="AL17" s="16"/>
-      <c r="AM17" s="25"/>
+      <c r="AK17" s="9"/>
+      <c r="AL17" s="11"/>
+      <c r="AM17" s="13"/>
     </row>
-    <row r="18" spans="1:39" ht="26" customHeight="1">
-      <c r="A18" s="24">
-        <v>14</v>
+    <row r="18" spans="1:39" ht="25.95" customHeight="1">
+      <c r="A18" s="22">
+        <f t="shared" si="1"/>
+        <v>43783</v>
       </c>
       <c r="B18" s="2"/>
-      <c r="C18" s="26" t="s">
+      <c r="C18" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="D18" s="27"/>
-      <c r="E18" s="28"/>
-      <c r="F18" s="29" t="s">
+      <c r="D18" s="15"/>
+      <c r="E18" s="16"/>
+      <c r="F18" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="G18" s="27"/>
-      <c r="H18" s="30"/>
-      <c r="I18" s="30"/>
-      <c r="J18" s="31"/>
-      <c r="K18" s="31" t="s">
+      <c r="G18" s="15"/>
+      <c r="H18" s="18"/>
+      <c r="I18" s="18"/>
+      <c r="J18" s="19"/>
+      <c r="K18" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="L18" s="31"/>
-      <c r="M18" s="32"/>
-      <c r="N18" s="30"/>
-      <c r="O18" s="31"/>
-      <c r="P18" s="31" t="s">
+      <c r="L18" s="19"/>
+      <c r="M18" s="20"/>
+      <c r="N18" s="18"/>
+      <c r="O18" s="19"/>
+      <c r="P18" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="Q18" s="33"/>
-      <c r="R18" s="16"/>
-      <c r="S18" s="25"/>
-      <c r="U18" s="24">
-        <v>31</v>
+      <c r="Q18" s="21"/>
+      <c r="R18" s="11"/>
+      <c r="S18" s="13"/>
+      <c r="U18" s="22" t="str">
+        <f>IF(DAY(U17+1)=1,"※",U17+1)</f>
+        <v>※</v>
       </c>
       <c r="V18" s="2"/>
-      <c r="W18" s="26" t="s">
+      <c r="W18" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="X18" s="27"/>
-      <c r="Y18" s="28"/>
-      <c r="Z18" s="29" t="s">
+      <c r="X18" s="15"/>
+      <c r="Y18" s="16"/>
+      <c r="Z18" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="AA18" s="27"/>
-      <c r="AB18" s="30"/>
-      <c r="AC18" s="30"/>
-      <c r="AD18" s="31"/>
-      <c r="AE18" s="31" t="s">
+      <c r="AA18" s="15"/>
+      <c r="AB18" s="18"/>
+      <c r="AC18" s="18"/>
+      <c r="AD18" s="19"/>
+      <c r="AE18" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="AF18" s="31"/>
-      <c r="AG18" s="32"/>
-      <c r="AH18" s="30"/>
-      <c r="AI18" s="31"/>
-      <c r="AJ18" s="31" t="s">
+      <c r="AF18" s="19"/>
+      <c r="AG18" s="20"/>
+      <c r="AH18" s="18"/>
+      <c r="AI18" s="19"/>
+      <c r="AJ18" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="AK18" s="33"/>
-      <c r="AL18" s="16"/>
-      <c r="AM18" s="25"/>
+      <c r="AK18" s="21"/>
+      <c r="AL18" s="11"/>
+      <c r="AM18" s="13"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="C1:D2"/>
+  <mergeCells count="2">
+    <mergeCell ref="E1:F2"/>
+    <mergeCell ref="A1:D2"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
+  <conditionalFormatting sqref="A5:A18 U2:U18">
+    <cfRule type="expression" dxfId="1" priority="1">
+      <formula>WEEKDAY(A2)=1</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="2">
+      <formula>WEEKDAY(A2)=7</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" fitToWidth="0" fitToHeight="0" orientation="landscape" horizontalDpi="4294967292" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" fitToWidth="0" fitToHeight="0" orientation="landscape" horizontalDpi="4294967292" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>